--- a/input_sample/M18095368M/M18095368M_input_df.xlsx
+++ b/input_sample/M18095368M/M18095368M_input_df.xlsx
@@ -28,7 +28,7 @@
     <t>ex_thick</t>
   </si>
   <si>
-    <t>rolling_force</t>
+    <t>force_strip</t>
   </si>
   <si>
     <t>ex_temp</t>

--- a/input_sample/M18095368M/M18095368M_input_df.xlsx
+++ b/input_sample/M18095368M/M18095368M_input_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="90">
   <si>
     <t>en_width</t>
   </si>
@@ -52,6 +52,33 @@
     <t>pu_prf_pass0</t>
   </si>
   <si>
+    <t>tgt_profile</t>
+  </si>
+  <si>
+    <t>tgt_flatness</t>
+  </si>
+  <si>
+    <t>prf_vrn</t>
+  </si>
+  <si>
+    <t>flt_vrn</t>
+  </si>
+  <si>
+    <t>prf_int</t>
+  </si>
+  <si>
+    <t>prf_fin</t>
+  </si>
+  <si>
+    <t>wr_shft</t>
+  </si>
+  <si>
+    <t>force_bnd</t>
+  </si>
+  <si>
+    <t>dummied</t>
+  </si>
+  <si>
     <t>1170.44</t>
   </si>
   <si>
@@ -227,6 +254,36 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.0063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0400 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0    </t>
+  </si>
+  <si>
+    <t>-0.0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0403 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -92.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   53.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -584,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,292 +684,508 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" t="s">
+        <v>85</v>
+      </c>
+      <c r="U6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
